--- a/Cuadro comparativo GIT y GITHUB.xlsx
+++ b/Cuadro comparativo GIT y GITHUB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarielaN\Desktop\TICs 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIPLOMA DE LAS TIC\MODULO -2\GITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -47,60 +47,52 @@
     <t>CUADRO COMPARATIVO HERREMIENTAS GIT Y GITHUB</t>
   </si>
   <si>
-    <t>es un software de control de versiones que ayuda a realizar un seguimiento de cambios en el código fuente como una "versión" en lugar de almacenar todos los cambios en un servidor central.</t>
-  </si>
-  <si>
-    <t>es un sistema de control distriuido</t>
-  </si>
-  <si>
-    <t>es un sistema de control centralizado</t>
-  </si>
-  <si>
-    <t>mayor control del desarrollo por parte del equipo.</t>
-  </si>
-  <si>
-    <t>cada repositorio local podría tener diferentes números de versión.</t>
-  </si>
-  <si>
-    <t>es un proyecto de código abierto (software gratuito)</t>
-  </si>
-  <si>
-    <t>es un proyecto de código fuente (se puede acceder a una cuenta gratuita y otra pagada)</t>
-  </si>
-  <si>
-    <t>es limitado a la hora de compartir con un equipo</t>
-  </si>
-  <si>
-    <t>permite definir un número de versión en cada una de las etapas de un proyecto</t>
-  </si>
-  <si>
-    <t>es un sitio web que aloja repositorios de Git en un servidor central y con personas que son llamadas colaboradores.</t>
-  </si>
-  <si>
     <t xml:space="preserve">En resumen: Git es algo más general que sirve para controlar el estado de un desarrollo a lo largo del tiempo y Github es algo más particular, un sitio web que usa Git para ofrecer a la comunidad de desarrolladores repositorios de software. </t>
   </si>
   <si>
-    <t>neccesita de un servidor central, necesita por tanto mayor capacidad de procesamiento</t>
-  </si>
-  <si>
-    <t>no necesita de un servidor central, requiere menos capacidad de almacenamiento</t>
+    <t>Es un proyecto de código fuente (se puede acceder a una cuenta gratuita y otra pagada)</t>
+  </si>
+  <si>
+    <t>Es un sitio web que aloja repositorios de Git en un servidor central y con personas que son llamadas colaboradores.</t>
+  </si>
+  <si>
+    <t>Es un sistema de control centralizado</t>
+  </si>
+  <si>
+    <t>Mayor control del desarrollo por parte del equipo.</t>
+  </si>
+  <si>
+    <t>Permite definir un número de versión en cada una de las etapas de un proyecto</t>
+  </si>
+  <si>
+    <t>No necesita de un servidor central, requiere menos capacidad de almacenamiento</t>
+  </si>
+  <si>
+    <t>Neccesita de un servidor central, necesita por tanto mayor capacidad de procesamiento</t>
+  </si>
+  <si>
+    <t>Es un proyecto de código abierto (software gratuito)</t>
+  </si>
+  <si>
+    <t>Es un software de control de versiones que ayuda a realizar un seguimiento de cambios en el código fuente como una "versión" en lugar de almacenar todos los cambios en un servidor central.</t>
+  </si>
+  <si>
+    <t>Es un sistema de control distriuido</t>
+  </si>
+  <si>
+    <t>Es limitado a la hora de compartir con un equipo</t>
+  </si>
+  <si>
+    <t>Cada repositorio local podría tener diferentes números de versión.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -115,14 +107,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,12 +151,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -166,19 +185,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -204,34 +210,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Énfasis3" xfId="2" builtinId="38"/>
+    <cellStyle name="Énfasis3" xfId="1" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,7 +437,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -648,51 +702,55 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.54296875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="48.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -700,60 +758,61 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="3">
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
